--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Fgf8-Fgfr1.xlsx
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.900730666666667</v>
+        <v>2.294987</v>
       </c>
       <c r="N2">
-        <v>17.702192</v>
+        <v>6.884961000000001</v>
       </c>
       <c r="O2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="P2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="Q2">
-        <v>0.759892161432889</v>
+        <v>0.2955468958686667</v>
       </c>
       <c r="R2">
-        <v>6.839029452896001</v>
+        <v>2.659922062818</v>
       </c>
       <c r="S2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
       <c r="T2">
-        <v>0.03970749001357476</v>
+        <v>0.0158275801650097</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>334.775132</v>
       </c>
       <c r="O3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="P3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
       <c r="Q3">
         <v>14.37070610517955</v>
@@ -632,10 +632,10 @@
         <v>129.336354946616</v>
       </c>
       <c r="S3">
-        <v>0.7509284844884279</v>
+        <v>0.769602070219672</v>
       </c>
       <c r="T3">
-        <v>0.7509284844884279</v>
+        <v>0.7696020702196722</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>31.11253633333334</v>
+        <v>31.11253633333333</v>
       </c>
       <c r="N4">
-        <v>93.33760900000001</v>
+        <v>93.337609</v>
       </c>
       <c r="O4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="P4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="Q4">
         <v>4.006651687315778</v>
       </c>
       <c r="R4">
-        <v>36.05986518584201</v>
+        <v>36.059865185842</v>
       </c>
       <c r="S4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
       <c r="T4">
-        <v>0.2093640254979974</v>
+        <v>0.2145703496153182</v>
       </c>
     </row>
   </sheetData>
